--- a/conv_latest.xlsx
+++ b/conv_latest.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="China" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Oversea" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="China" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Oversea" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -392,126 +392,126 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2020-02-15 17:32:52</t>
+          <t>2020-02-15 13:48:30</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>291</v>
+        <v>326</v>
       </c>
       <c r="C2" t="n">
-        <v>92</v>
+        <v>124</v>
       </c>
       <c r="D2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>河北省</t>
+          <t>上海市</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2020-02-13 01:19:12</t>
+          <t>2020-02-15 15:27:21</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>168</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>42</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>西藏自治区</t>
+          <t>云南省</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2020-02-15 10:25:26</t>
+          <t>2020-02-15 10:54:12</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>162</v>
+        <v>68</v>
       </c>
       <c r="C4" t="n">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>海南省</t>
+          <t>内蒙古自治区</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2020-02-15 17:32:52</t>
+          <t>2020-02-15 13:55:59</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>119</v>
+        <v>375</v>
       </c>
       <c r="C5" t="n">
-        <v>30</v>
+        <v>97</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>辽宁省</t>
+          <t>北京市</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2020-02-15 17:32:52</t>
+          <t>2020-02-14 11:04:21</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>425</v>
+        <v>18</v>
       </c>
       <c r="C6" t="n">
-        <v>51</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>黑龙江省</t>
+          <t>台湾</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2020-02-14 17:59:25</t>
+          <t>2020-02-15 09:19:42</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>56</v>
+        <v>88</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="D7" t="n">
         <v>1</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>香港</t>
+          <t>吉林省</t>
         </is>
       </c>
     </row>
@@ -522,17 +522,17 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1212</v>
+        <v>470</v>
       </c>
       <c r="C8" t="n">
-        <v>382</v>
+        <v>119</v>
       </c>
       <c r="D8" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>河南省</t>
+          <t>四川省</t>
         </is>
       </c>
     </row>
@@ -543,17 +543,17 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>470</v>
+        <v>121</v>
       </c>
       <c r="C9" t="n">
-        <v>119</v>
+        <v>33</v>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>四川省</t>
+          <t>天津市</t>
         </is>
       </c>
     </row>
@@ -564,80 +564,80 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="C10" t="n">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>青海省</t>
+          <t>宁夏回族自治区</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2020-02-15 17:32:52</t>
+          <t>2020-02-15 15:42:15</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>532</v>
+        <v>950</v>
       </c>
       <c r="C11" t="n">
-        <v>152</v>
+        <v>216</v>
       </c>
       <c r="D11" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>山东省</t>
+          <t>安徽省</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2020-02-15 15:27:21</t>
+          <t>2020-02-15 17:32:52</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>143</v>
+        <v>532</v>
       </c>
       <c r="C12" t="n">
-        <v>40</v>
+        <v>152</v>
       </c>
       <c r="D12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>贵州省</t>
+          <t>山东省</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2020-02-15 15:44:24</t>
+          <t>2020-02-15 15:27:21</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>90</v>
+        <v>127</v>
       </c>
       <c r="C13" t="n">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>甘肃省</t>
+          <t>山西省</t>
         </is>
       </c>
     </row>
@@ -665,105 +665,105 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>2020-02-15 13:48:30</t>
+          <t>2020-02-15 15:27:21</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>326</v>
+        <v>235</v>
       </c>
       <c r="C15" t="n">
-        <v>124</v>
+        <v>44</v>
       </c>
       <c r="D15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>上海市</t>
+          <t>广西壮族自治区</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>2020-02-15 15:27:21</t>
+          <t>2020-02-15 10:25:26</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1001</v>
+        <v>70</v>
       </c>
       <c r="C16" t="n">
-        <v>401</v>
+        <v>6</v>
       </c>
       <c r="D16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>湖南省</t>
+          <t>新疆维吾尔自治区</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>2020-02-15 13:55:59</t>
+          <t>2020-02-15 12:38:23</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>375</v>
+        <v>604</v>
       </c>
       <c r="C17" t="n">
-        <v>97</v>
+        <v>171</v>
       </c>
       <c r="D17" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>北京市</t>
+          <t>江苏省</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>2020-02-15 15:27:21</t>
+          <t>2020-02-15 10:26:30</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>168</v>
+        <v>913</v>
       </c>
       <c r="C18" t="n">
-        <v>42</v>
+        <v>210</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>云南省</t>
+          <t>江西省</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>2020-02-15 15:27:21</t>
+          <t>2020-02-15 17:32:52</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>127</v>
+        <v>291</v>
       </c>
       <c r="C19" t="n">
-        <v>42</v>
+        <v>92</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>山西省</t>
+          <t>河北省</t>
         </is>
       </c>
     </row>
@@ -774,332 +774,332 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>54406</v>
+        <v>1212</v>
       </c>
       <c r="C20" t="n">
-        <v>4792</v>
+        <v>382</v>
       </c>
       <c r="D20" t="n">
-        <v>1457</v>
+        <v>13</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>湖北省</t>
+          <t>河南省</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>2020-02-15 16:00:22</t>
+          <t>2020-02-15 15:27:21</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>537</v>
+        <v>1162</v>
       </c>
       <c r="C21" t="n">
-        <v>166</v>
+        <v>417</v>
       </c>
       <c r="D21" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>重庆市</t>
+          <t>浙江省</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>2020-02-15 17:32:52</t>
+          <t>2020-02-15 10:25:26</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>70</v>
+        <v>162</v>
       </c>
       <c r="C22" t="n">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>宁夏回族自治区</t>
+          <t>海南省</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>2020-02-15 15:53:59</t>
+          <t>2020-02-15 17:32:52</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>285</v>
+        <v>54406</v>
       </c>
       <c r="C23" t="n">
-        <v>68</v>
+        <v>4792</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>1457</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>福建省</t>
+          <t>湖北省</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>2020-02-15 17:32:52</t>
+          <t>2020-02-15 15:27:21</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>121</v>
+        <v>1001</v>
       </c>
       <c r="C24" t="n">
-        <v>33</v>
+        <v>401</v>
       </c>
       <c r="D24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>天津市</t>
+          <t>湖南省</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>2020-02-15 15:27:21</t>
+          <t>2020-02-13 23:12:44</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>232</v>
+        <v>10</v>
       </c>
       <c r="C25" t="n">
-        <v>56</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>陕西省</t>
+          <t>澳门</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>2020-02-14 11:04:21</t>
+          <t>2020-02-15 15:44:24</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>18</v>
+        <v>90</v>
       </c>
       <c r="C26" t="n">
+        <v>45</v>
+      </c>
+      <c r="D26" t="n">
         <v>2</v>
       </c>
-      <c r="D26" t="n">
-        <v>0</v>
-      </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>台湾</t>
+          <t>甘肃省</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>2020-02-15 15:42:15</t>
+          <t>2020-02-15 15:53:59</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>950</v>
+        <v>285</v>
       </c>
       <c r="C27" t="n">
-        <v>216</v>
+        <v>68</v>
       </c>
       <c r="D27" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>安徽省</t>
+          <t>福建省</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>2020-02-15 10:25:26</t>
+          <t>2020-02-13 01:19:12</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="C28" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>新疆维吾尔自治区</t>
+          <t>西藏自治区</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>2020-02-15 12:38:23</t>
+          <t>2020-02-15 15:27:21</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>604</v>
+        <v>143</v>
       </c>
       <c r="C29" t="n">
-        <v>171</v>
+        <v>40</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>江苏省</t>
+          <t>贵州省</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>2020-02-15 10:54:12</t>
+          <t>2020-02-15 17:32:52</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>68</v>
+        <v>119</v>
       </c>
       <c r="C30" t="n">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>内蒙古自治区</t>
+          <t>辽宁省</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>2020-02-15 15:27:21</t>
+          <t>2020-02-15 16:00:22</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1162</v>
+        <v>537</v>
       </c>
       <c r="C31" t="n">
-        <v>417</v>
+        <v>166</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>浙江省</t>
+          <t>重庆市</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>2020-02-15 10:26:30</t>
+          <t>2020-02-15 15:27:21</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>913</v>
+        <v>232</v>
       </c>
       <c r="C32" t="n">
-        <v>210</v>
+        <v>56</v>
       </c>
       <c r="D32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>江西省</t>
+          <t>陕西省</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>2020-02-15 15:27:21</t>
+          <t>2020-02-15 17:32:52</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>235</v>
+        <v>18</v>
       </c>
       <c r="C33" t="n">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="D33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>广西壮族自治区</t>
+          <t>青海省</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>2020-02-13 23:12:44</t>
+          <t>2020-02-14 17:59:25</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>澳门</t>
+          <t>香港</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>2020-02-15 09:19:42</t>
+          <t>2020-02-15 17:32:52</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>88</v>
+        <v>425</v>
       </c>
       <c r="C35" t="n">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="D35" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>吉林省</t>
+          <t>黑龙江省</t>
         </is>
       </c>
     </row>
@@ -1168,15 +1168,15 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>法国</t>
+          <t>俄罗斯</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -1189,15 +1189,15 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>韩国</t>
+          <t>加拿大</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -1210,15 +1210,15 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>马来西亚</t>
+          <t>印度</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -1235,7 +1235,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>比利时</t>
+          <t>埃及</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -1252,11 +1252,11 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>英国</t>
+          <t>尼泊尔</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -1277,11 +1277,11 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>越南</t>
+          <t>德国</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1294,11 +1294,11 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>尼泊尔</t>
+          <t>意大利</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>埃及</t>
+          <t>斯里兰卡</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -1336,15 +1336,15 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2</v>
+        <v>67</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>俄罗斯</t>
+          <t>新加坡</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1378,15 +1378,15 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>意大利</t>
+          <t>柬埔寨</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -1399,18 +1399,18 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>菲律宾</t>
+          <t>比利时</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1420,15 +1420,15 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>阿联酋</t>
+          <t>法国</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -1441,15 +1441,15 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>澳大利亚</t>
+          <t>泰国</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -1462,15 +1462,15 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>斯里兰卡</t>
+          <t>澳大利亚</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1483,15 +1483,15 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>泰国</t>
+          <t>瑞典</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -1504,15 +1504,15 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>西班牙</t>
+          <t>美国</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -1525,15 +1525,15 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>印度</t>
+          <t>芬兰</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -1546,15 +1546,15 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>67</v>
+        <v>9</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>新加坡</t>
+          <t>英国</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -1567,18 +1567,18 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>柬埔寨</t>
+          <t>菲律宾</t>
         </is>
       </c>
       <c r="D21" t="n">
         <v>1</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -1588,15 +1588,15 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>加拿大</t>
+          <t>西班牙</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -1609,15 +1609,15 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>瑞典</t>
+          <t>越南</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -1630,11 +1630,11 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>美国</t>
+          <t>阿联酋</t>
         </is>
       </c>
       <c r="D24" t="n">
@@ -1651,15 +1651,15 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>德国</t>
+          <t>韩国</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -1672,15 +1672,15 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>芬兰</t>
+          <t>马来西亚</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
